--- a/CPLF00-00 Planilla de Inspección de Granjas - Carga de Aves.xlsx
+++ b/CPLF00-00 Planilla de Inspección de Granjas - Carga de Aves.xlsx
@@ -1429,7 +1429,7 @@
       </c>
       <c r="C7" s="21" t="inlineStr">
         <is>
-          <t>2025-01-29</t>
+          <t>11/2/2025</t>
         </is>
       </c>
       <c r="D7" s="22" t="n"/>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="I7" s="25" t="inlineStr">
         <is>
-          <t>15:17</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="J7" s="26" t="n"/>
@@ -1458,7 +1458,7 @@
       </c>
       <c r="C8" s="28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cristian </t>
+          <t xml:space="preserve">Cristian Aguilera </t>
         </is>
       </c>
       <c r="D8" s="29" t="n"/>
@@ -1486,7 +1486,7 @@
       </c>
       <c r="C10" s="23" t="inlineStr">
         <is>
-          <t>Jajjasjs</t>
+          <t xml:space="preserve">Irigoyen </t>
         </is>
       </c>
       <c r="D10" s="23" t="n"/>
@@ -1504,7 +1504,11 @@
           <t>Dirección:</t>
         </is>
       </c>
-      <c r="B11" s="23" t="inlineStr"/>
+      <c r="B11" s="23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Capilla del Señor </t>
+        </is>
+      </c>
       <c r="C11" s="28" t="n"/>
       <c r="D11" s="28" t="n"/>
       <c r="E11" s="28" t="n"/>
@@ -1553,7 +1557,11 @@
           <t>Destino/s:</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Acs</t>
+        </is>
+      </c>
       <c r="G14" s="24" t="n"/>
       <c r="H14" s="24" t="n"/>
       <c r="I14" s="24" t="n"/>
@@ -1566,7 +1574,11 @@
           <t xml:space="preserve">Cuadrilla: </t>
         </is>
       </c>
-      <c r="C15" s="36" t="inlineStr"/>
+      <c r="C15" s="36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Daniele </t>
+        </is>
+      </c>
       <c r="D15" s="37" t="inlineStr"/>
       <c r="E15" s="38" t="inlineStr"/>
       <c r="F15" s="37" t="inlineStr"/>
@@ -1582,7 +1594,11 @@
           <t>Cant operarios:</t>
         </is>
       </c>
-      <c r="C16" s="39" t="inlineStr"/>
+      <c r="C16" s="39" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
       <c r="D16" s="136" t="inlineStr"/>
       <c r="E16" s="137" t="n"/>
       <c r="F16" s="138" t="inlineStr"/>
@@ -1626,7 +1642,11 @@
           <t>Encargado:</t>
         </is>
       </c>
-      <c r="G18" s="45" t="inlineStr"/>
+      <c r="G18" s="45" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H18" s="45" t="inlineStr">
         <is>
           <t>Ninguno:</t>
@@ -1660,14 +1680,22 @@
           <t>Tierra:</t>
         </is>
       </c>
-      <c r="E20" s="46" t="inlineStr"/>
+      <c r="E20" s="46" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="F20" s="46" t="n"/>
       <c r="G20" s="48" t="inlineStr">
         <is>
           <t xml:space="preserve">Asfaltado: </t>
         </is>
       </c>
-      <c r="H20" s="46" t="inlineStr"/>
+      <c r="H20" s="46" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="I20" s="46" t="n"/>
       <c r="J20" s="46" t="inlineStr">
         <is>
@@ -1767,7 +1795,11 @@
       <c r="E25" s="148" t="n"/>
       <c r="F25" s="137" t="n"/>
       <c r="G25" s="36" t="inlineStr"/>
-      <c r="H25" s="68" t="inlineStr"/>
+      <c r="H25" s="68" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="I25" s="38" t="n"/>
       <c r="J25" s="36" t="inlineStr"/>
       <c r="K25" s="69" t="n"/>
@@ -1784,7 +1816,11 @@
       <c r="D26" s="148" t="n"/>
       <c r="E26" s="148" t="n"/>
       <c r="F26" s="137" t="n"/>
-      <c r="G26" s="36" t="inlineStr"/>
+      <c r="G26" s="36" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H26" s="68" t="inlineStr"/>
       <c r="I26" s="38" t="n"/>
       <c r="J26" s="36" t="inlineStr"/>
@@ -1802,7 +1838,11 @@
       <c r="D27" s="150" t="n"/>
       <c r="E27" s="150" t="n"/>
       <c r="F27" s="151" t="n"/>
-      <c r="G27" s="74" t="inlineStr"/>
+      <c r="G27" s="74" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H27" s="75" t="inlineStr"/>
       <c r="I27" s="76" t="n"/>
       <c r="J27" s="74" t="inlineStr"/>
@@ -1845,7 +1885,7 @@
       </c>
       <c r="B30" s="84" t="inlineStr">
         <is>
-          <t>Sudhdhhd</t>
+          <t>2:30</t>
         </is>
       </c>
       <c r="C30" s="84" t="n"/>
@@ -1860,7 +1900,7 @@
       <c r="H30" s="145" t="n"/>
       <c r="I30" s="25" t="inlineStr">
         <is>
-          <t>Jajajja</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="J30" s="25" t="n"/>
@@ -1873,7 +1913,11 @@
           <t>Horas de ayuno:</t>
         </is>
       </c>
-      <c r="B31" s="88" t="inlineStr"/>
+      <c r="B31" s="88" t="inlineStr">
+        <is>
+          <t>8hs</t>
+        </is>
+      </c>
       <c r="C31" s="88" t="n"/>
       <c r="D31" s="88" t="n"/>
       <c r="E31" s="88" t="n"/>
@@ -1937,7 +1981,11 @@
           <t>Equipo de carga:</t>
         </is>
       </c>
-      <c r="B35" s="98" t="inlineStr"/>
+      <c r="B35" s="98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Daniele   </t>
+        </is>
+      </c>
       <c r="C35" s="98" t="n"/>
       <c r="D35" s="98" t="n"/>
       <c r="E35" s="98" t="n"/>
@@ -2012,12 +2060,12 @@
       <c r="D38" s="148" t="n"/>
       <c r="E38" s="148" t="n"/>
       <c r="F38" s="137" t="n"/>
-      <c r="G38" s="107" t="inlineStr"/>
-      <c r="H38" s="107" t="inlineStr">
+      <c r="G38" s="107" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
+      <c r="H38" s="107" t="inlineStr"/>
       <c r="I38" s="107" t="inlineStr"/>
       <c r="J38" s="108" t="inlineStr"/>
       <c r="K38" s="109" t="n"/>
@@ -2034,12 +2082,12 @@
       <c r="D39" s="112" t="n"/>
       <c r="E39" s="112" t="n"/>
       <c r="F39" s="113" t="n"/>
-      <c r="G39" s="103" t="inlineStr"/>
-      <c r="H39" s="103" t="inlineStr">
+      <c r="G39" s="103" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
+      <c r="H39" s="103" t="inlineStr"/>
       <c r="I39" s="103" t="inlineStr"/>
       <c r="J39" s="108" t="inlineStr"/>
       <c r="K39" s="109" t="n"/>
@@ -2056,12 +2104,12 @@
       <c r="D40" s="112" t="n"/>
       <c r="E40" s="112" t="n"/>
       <c r="F40" s="113" t="n"/>
-      <c r="G40" s="103" t="inlineStr"/>
-      <c r="H40" s="103" t="inlineStr">
+      <c r="G40" s="103" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
+      <c r="H40" s="103" t="inlineStr"/>
       <c r="I40" s="103" t="inlineStr"/>
       <c r="J40" s="108" t="inlineStr"/>
       <c r="K40" s="109" t="n"/>
@@ -2078,12 +2126,12 @@
       <c r="D41" s="160" t="n"/>
       <c r="E41" s="160" t="n"/>
       <c r="F41" s="161" t="n"/>
-      <c r="G41" s="117" t="inlineStr"/>
-      <c r="H41" s="117" t="inlineStr">
+      <c r="G41" s="117" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
+      <c r="H41" s="117" t="inlineStr"/>
       <c r="I41" s="117" t="inlineStr"/>
       <c r="J41" s="108" t="inlineStr"/>
       <c r="K41" s="109" t="n"/>
@@ -2136,12 +2184,12 @@
         </is>
       </c>
       <c r="F44" s="164" t="n"/>
-      <c r="G44" s="103" t="inlineStr">
+      <c r="G44" s="103" t="inlineStr"/>
+      <c r="H44" s="103" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H44" s="103" t="inlineStr"/>
       <c r="I44" s="107" t="inlineStr"/>
       <c r="J44" s="124" t="n"/>
       <c r="K44" s="24" t="n"/>
@@ -2158,12 +2206,12 @@
       <c r="D45" s="64" t="n"/>
       <c r="E45" s="64" t="n"/>
       <c r="F45" s="65" t="n"/>
-      <c r="G45" s="126" t="inlineStr"/>
-      <c r="H45" s="126" t="inlineStr">
+      <c r="G45" s="126" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
+      <c r="H45" s="126" t="inlineStr"/>
       <c r="I45" s="107" t="inlineStr"/>
       <c r="J45" s="124" t="n"/>
       <c r="K45" s="24" t="n"/>

--- a/CPLF00-00 Planilla de Inspección de Granjas - Carga de Aves.xlsx
+++ b/CPLF00-00 Planilla de Inspección de Granjas - Carga de Aves.xlsx
@@ -1429,7 +1429,7 @@
       </c>
       <c r="C7" s="21" t="inlineStr">
         <is>
-          <t>11/2/2025</t>
+          <t>17-2-2025</t>
         </is>
       </c>
       <c r="D7" s="22" t="n"/>
@@ -1441,11 +1441,7 @@
           <t>Hora:</t>
         </is>
       </c>
-      <c r="I7" s="25" t="inlineStr">
-        <is>
-          <t>10:30</t>
-        </is>
-      </c>
+      <c r="I7" s="25" t="inlineStr"/>
       <c r="J7" s="26" t="n"/>
       <c r="K7" s="27" t="n"/>
       <c r="L7" s="4" t="n"/>
@@ -1486,7 +1482,7 @@
       </c>
       <c r="C10" s="23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Irigoyen </t>
+          <t xml:space="preserve">El triunfito </t>
         </is>
       </c>
       <c r="D10" s="23" t="n"/>
@@ -1506,7 +1502,7 @@
       </c>
       <c r="B11" s="23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Capilla del Señor </t>
+          <t xml:space="preserve">Cañuelas </t>
         </is>
       </c>
       <c r="C11" s="28" t="n"/>
@@ -1541,7 +1537,7 @@
       </c>
       <c r="C13" s="33" t="inlineStr">
         <is>
-          <t>EXP</t>
+          <t>MI</t>
         </is>
       </c>
       <c r="D13" s="33" t="n"/>
@@ -1559,7 +1555,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Acs</t>
+          <t xml:space="preserve">Planta Soychu </t>
         </is>
       </c>
       <c r="G14" s="24" t="n"/>
@@ -1576,7 +1572,7 @@
       </c>
       <c r="C15" s="36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Daniele </t>
+          <t xml:space="preserve">Arrua </t>
         </is>
       </c>
       <c r="D15" s="37" t="inlineStr"/>
@@ -1596,7 +1592,7 @@
       </c>
       <c r="C16" s="39" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D16" s="136" t="inlineStr"/>
@@ -1642,11 +1638,7 @@
           <t>Encargado:</t>
         </is>
       </c>
-      <c r="G18" s="45" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="G18" s="45" t="inlineStr"/>
       <c r="H18" s="45" t="inlineStr">
         <is>
           <t>Ninguno:</t>
@@ -1680,11 +1672,7 @@
           <t>Tierra:</t>
         </is>
       </c>
-      <c r="E20" s="46" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="E20" s="46" t="inlineStr"/>
       <c r="F20" s="46" t="n"/>
       <c r="G20" s="48" t="inlineStr">
         <is>
@@ -1772,12 +1760,12 @@
       <c r="D24" s="64" t="n"/>
       <c r="E24" s="64" t="n"/>
       <c r="F24" s="65" t="n"/>
-      <c r="G24" s="36" t="inlineStr"/>
-      <c r="H24" s="37" t="inlineStr">
+      <c r="G24" s="36" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
+      <c r="H24" s="37" t="inlineStr"/>
       <c r="I24" s="38" t="n"/>
       <c r="J24" s="37" t="inlineStr"/>
       <c r="K24" s="37" t="n"/>
@@ -1794,12 +1782,12 @@
       <c r="D25" s="148" t="n"/>
       <c r="E25" s="148" t="n"/>
       <c r="F25" s="137" t="n"/>
-      <c r="G25" s="36" t="inlineStr"/>
-      <c r="H25" s="68" t="inlineStr">
+      <c r="G25" s="36" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
+      <c r="H25" s="68" t="inlineStr"/>
       <c r="I25" s="38" t="n"/>
       <c r="J25" s="36" t="inlineStr"/>
       <c r="K25" s="69" t="n"/>
@@ -1816,12 +1804,12 @@
       <c r="D26" s="148" t="n"/>
       <c r="E26" s="148" t="n"/>
       <c r="F26" s="137" t="n"/>
-      <c r="G26" s="36" t="inlineStr">
+      <c r="G26" s="36" t="inlineStr"/>
+      <c r="H26" s="68" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H26" s="68" t="inlineStr"/>
       <c r="I26" s="38" t="n"/>
       <c r="J26" s="36" t="inlineStr"/>
       <c r="K26" s="37" t="n"/>
@@ -1885,7 +1873,7 @@
       </c>
       <c r="B30" s="84" t="inlineStr">
         <is>
-          <t>2:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="C30" s="84" t="n"/>
@@ -1900,7 +1888,7 @@
       <c r="H30" s="145" t="n"/>
       <c r="I30" s="25" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="J30" s="25" t="n"/>
@@ -1983,7 +1971,7 @@
       </c>
       <c r="B35" s="98" t="inlineStr">
         <is>
-          <t xml:space="preserve">Daniele   </t>
+          <t xml:space="preserve">Arrua </t>
         </is>
       </c>
       <c r="C35" s="98" t="n"/>
@@ -2087,7 +2075,11 @@
           <t>X</t>
         </is>
       </c>
-      <c r="H39" s="103" t="inlineStr"/>
+      <c r="H39" s="103" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="I39" s="103" t="inlineStr"/>
       <c r="J39" s="108" t="inlineStr"/>
       <c r="K39" s="109" t="n"/>
